--- a/12/InverseTrignometricFunctions.xlsx
+++ b/12/InverseTrignometricFunctions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t xml:space="preserve">A function's  inverser exists (or is inverteble), when the function is one-to-one and onto </t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t>Inverse Trignometric function Summary</t>
+  </si>
+  <si>
+    <t>5 Types of formulas</t>
+  </si>
+  <si>
+    <t>These are True in Principal value range ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 1 </t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Type 3</t>
+  </si>
+  <si>
+    <t>Type 4</t>
+  </si>
+  <si>
+    <t>Type 5</t>
   </si>
 </sst>
 </file>
@@ -799,6 +820,486 @@
         <a:xfrm>
           <a:off x="7239000" y="31103740"/>
           <a:ext cx="2486025" cy="1719409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280441</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="400051" y="32927925"/>
+          <a:ext cx="5976390" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498310</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="104776" y="35642549"/>
+          <a:ext cx="7099134" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>154166</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7877175" y="33242250"/>
+          <a:ext cx="6297791" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>141783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257176" y="38622783"/>
+          <a:ext cx="5372100" cy="3172917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168209</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="752475" y="43167300"/>
+          <a:ext cx="2463734" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>167314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431147</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="581025" y="44744314"/>
+          <a:ext cx="7165322" cy="1490036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>23540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="657225" y="46505540"/>
+          <a:ext cx="2790825" cy="1271860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>50443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6467476" y="43103443"/>
+          <a:ext cx="3162300" cy="1492606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>87191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="48664691"/>
+          <a:ext cx="4905375" cy="2627434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>506697</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1045" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6657975" y="46586775"/>
+          <a:ext cx="2992722" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247876</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1047" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180976" y="51682649"/>
+          <a:ext cx="4943700" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>483931</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="161925" y="55083075"/>
+          <a:ext cx="5808406" cy="3238500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1100,7 +1601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1108,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="L290" sqref="L290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1432,6 +1933,35 @@
         <v>46</v>
       </c>
     </row>
+    <row r="226" spans="1:10">
+      <c r="A226" t="s">
+        <v>47</v>
+      </c>
+      <c r="D226" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" t="s">
+        <v>49</v>
+      </c>
+      <c r="J228" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" t="s">
+        <v>51</v>
+      </c>
+      <c r="K245" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
